--- a/report_pile-monitor.xlsx
+++ b/report_pile-monitor.xlsx
@@ -201,7 +201,7 @@
     <t>0:01:8.636</t>
   </si>
   <si>
-    <t>2021-05-21_0947</t>
+    <t>2021-06-22_0756</t>
   </si>
   <si>
     <t>peakdb_nrStrikes</t>
@@ -2024,7 +2024,7 @@
         <v>196.96</v>
       </c>
       <c r="E2" s="1">
-        <v>184.26</v>
+        <v>179.49</v>
       </c>
       <c r="F2" s="1">
         <v>172.22</v>
@@ -2050,7 +2050,7 @@
         <v>202.47</v>
       </c>
       <c r="E3" s="1">
-        <v>211.01</v>
+        <v>194.3</v>
       </c>
       <c r="F3" s="1">
         <v>177.57</v>
@@ -2076,7 +2076,7 @@
         <v>202.15</v>
       </c>
       <c r="E4" s="1">
-        <v>211.4</v>
+        <v>194.44</v>
       </c>
       <c r="F4" s="1">
         <v>177.25</v>
